--- a/Report.xlsx
+++ b/Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vscode_repos\PP_LAB_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E134E30-7F0A-4009-95AF-0EBE318A5E01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B0C524-2AD9-42FA-8B17-AC04567103DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>Размер</t>
   </si>
@@ -542,7 +545,1652 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$20:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$33:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.17120850000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60916539999999986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4821089999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9172850000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4064420000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3221-4A28-9F7B-A8DC0E9CCAA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="573898687"/>
+        <c:axId val="573884127"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="573898687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573884127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="573884127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573898687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$35:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$48:$F$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.9776830000000016E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31266300000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75224450000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5153760000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8003679999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2175-423E-A119-DBE760535B58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="573892863"/>
+        <c:axId val="573899103"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="573892863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573899103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="573899103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573892863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$50:$F$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$63:$F$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.6434990000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16483500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39736129999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79795800000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4629249999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC88-4970-BCDE-289D36B380BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="584427327"/>
+        <c:axId val="584427743"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="584427327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584427743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="584427743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584427327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$65:$F$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$78:$F$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.4456570000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11324706999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26791940000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59302699999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0178718999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B35B-4C0A-961E-CF5E10351F6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="713328175"/>
+        <c:axId val="710995551"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="713328175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="710995551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="710995551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="713328175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$80:$F$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$93:$F$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.631443E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6195649999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24030569999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58523460000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2268279999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0132-430A-BEB6-FCDF5BE081EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="579280975"/>
+        <c:axId val="579279727"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="579280975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579279727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="579279727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579280975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1098,6 +2746,2586 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1131,6 +5359,186 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{838E3668-ED05-4A6B-86F4-0DEF18EE5CDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA118965-86CA-49A4-A073-3397AFACBDA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>255270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1CCE8C3-BF3F-4F94-891B-2E85ED7ED66A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02BE3D22-7524-4103-BB35-014CDD8697A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>194310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03D7538D-52BF-4F16-9852-90D4BCCC9328}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1402,10 +5810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="Q86" sqref="Q86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1906,6 +6314,33 @@
         <v>5.3654200000000003</v>
       </c>
     </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <f>AVERAGE(B21:B30)</f>
+        <v>0.17120850000000004</v>
+      </c>
+      <c r="C33">
+        <f>AVERAGE(C21:C30)</f>
+        <v>0.60916539999999986</v>
+      </c>
+      <c r="D33">
+        <f>AVERAGE(D21:D30)</f>
+        <v>1.4821089999999999</v>
+      </c>
+      <c r="E33">
+        <f>AVERAGE(E21:E30)</f>
+        <v>2.9172850000000001</v>
+      </c>
+      <c r="F33">
+        <f>AVERAGE(F21:F30)</f>
+        <v>5.4064420000000002</v>
+      </c>
+    </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>6</v>
@@ -2134,6 +6569,33 @@
         <v>2.6971699999999998</v>
       </c>
     </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <f>AVERAGE(B36:B45)</f>
+        <v>8.9776830000000016E-2</v>
+      </c>
+      <c r="C48">
+        <f>AVERAGE(C36:C45)</f>
+        <v>0.31266300000000002</v>
+      </c>
+      <c r="D48">
+        <f>AVERAGE(D36:D45)</f>
+        <v>0.75224450000000009</v>
+      </c>
+      <c r="E48">
+        <f>AVERAGE(E36:E45)</f>
+        <v>1.5153760000000001</v>
+      </c>
+      <c r="F48">
+        <f>AVERAGE(F36:F45)</f>
+        <v>2.8003679999999997</v>
+      </c>
+    </row>
     <row r="49" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>7</v>
@@ -2362,6 +6824,33 @@
         <v>1.49194</v>
       </c>
     </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <f>AVERAGE(B51:B60)</f>
+        <v>4.6434990000000002E-2</v>
+      </c>
+      <c r="C63">
+        <f>AVERAGE(C51:C60)</f>
+        <v>0.16483500000000001</v>
+      </c>
+      <c r="D63">
+        <f>AVERAGE(D51:D60)</f>
+        <v>0.39736129999999997</v>
+      </c>
+      <c r="E63">
+        <f>AVERAGE(E51:E60)</f>
+        <v>0.79795800000000006</v>
+      </c>
+      <c r="F63">
+        <f>AVERAGE(F51:F60)</f>
+        <v>1.4629249999999998</v>
+      </c>
+    </row>
     <row r="64" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>8</v>
@@ -2590,6 +7079,33 @@
         <v>1.02817</v>
       </c>
     </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <f>AVERAGE(B66:B75)</f>
+        <v>3.4456570000000006E-2</v>
+      </c>
+      <c r="C78">
+        <f>AVERAGE(C66:C75)</f>
+        <v>0.11324706999999998</v>
+      </c>
+      <c r="D78">
+        <f>AVERAGE(D66:D75)</f>
+        <v>0.26791940000000003</v>
+      </c>
+      <c r="E78">
+        <f>AVERAGE(E66:E75)</f>
+        <v>0.59302699999999997</v>
+      </c>
+      <c r="F78">
+        <f>AVERAGE(F66:F75)</f>
+        <v>1.0178718999999998</v>
+      </c>
+    </row>
     <row r="79" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
         <v>9</v>
@@ -2816,6 +7332,33 @@
       </c>
       <c r="F90">
         <v>1.21149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <f>AVERAGE(B81:B90)</f>
+        <v>2.631443E-2</v>
+      </c>
+      <c r="C93">
+        <f>AVERAGE(C81:C90)</f>
+        <v>8.6195649999999999E-2</v>
+      </c>
+      <c r="D93">
+        <f>AVERAGE(D81:D90)</f>
+        <v>0.24030569999999996</v>
+      </c>
+      <c r="E93">
+        <f>AVERAGE(E81:E90)</f>
+        <v>0.58523460000000005</v>
+      </c>
+      <c r="F93">
+        <f>AVERAGE(F81:F90)</f>
+        <v>1.2268279999999998</v>
       </c>
     </row>
   </sheetData>
